--- a/biology/Neurosciences/Ligament_dentelé/Ligament_dentelé.xlsx
+++ b/biology/Neurosciences/Ligament_dentelé/Ligament_dentelé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_dentel%C3%A9</t>
+          <t>Ligament_dentelé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ligament dentelé ou ligament denticulé est une structure anatomique située dans le canal vertébral du rachis. C'est une expansion de pie-mère reliant la face latérale de la moelle épinière à la dure-mère spinale, au niveau de son extrémité latérale. Le ligament dentelé se trouve donc dans l'espace sous-arachnoïdien. Il est dit dentelé car il est partiellement interrompu au niveau de la réunion des racines ventrale et dorsale de chaque métamère, latéralement à la moelle[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament dentelé ou ligament denticulé est une structure anatomique située dans le canal vertébral du rachis. C'est une expansion de pie-mère reliant la face latérale de la moelle épinière à la dure-mère spinale, au niveau de son extrémité latérale. Le ligament dentelé se trouve donc dans l'espace sous-arachnoïdien. Il est dit dentelé car il est partiellement interrompu au niveau de la réunion des racines ventrale et dorsale de chaque métamère, latéralement à la moelle.
 </t>
         </is>
       </c>
